--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192932000</v>
+        <v>177147296.903624</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>72781000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="33" t="n">
+        <v>84120764.70590283</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>128981000</v>
-      </c>
       <c r="F2" t="n">
-        <v>107362000</v>
+        <v>70521697.68207331</v>
       </c>
       <c r="G2" t="n">
-        <v>2567743000</v>
+        <v>1381742206.570516</v>
       </c>
       <c r="H2" t="n">
-        <v>135463000</v>
+        <v>100036130.001147</v>
       </c>
       <c r="I2" t="n">
-        <v>573058000</v>
+        <v>338926354.1381828</v>
       </c>
       <c r="J2" t="n">
-        <v>1021721000</v>
+        <v>663208910.8597739</v>
       </c>
       <c r="K2" t="n">
         <v>145345000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>486669512.1951219</v>
+        <v>314658736.7656342</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>25545487.80487805</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>711880000</v>
+        <v>433974455.6203697</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>36771401.25045973</v>
+        <v>0</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>203568598.7495403</v>
+        <v>95122382.77158049</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>566889151.3618098</v>
+        <v>347996658.6796258</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>233978848.6381902</v>
+        <v>40095921.80172924</v>
       </c>
       <c r="S2" t="n">
-        <v>974575000</v>
+        <v>529680705.301055</v>
       </c>
       <c r="T2" t="n">
-        <v>135372000</v>
+        <v>86508948.0960855</v>
       </c>
       <c r="U2" t="n">
-        <v>345138000</v>
+        <v>253707344.5622127</v>
       </c>
       <c r="V2" t="n">
-        <v>791578000</v>
+        <v>533779754.517917</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>257678598.012376</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>326707481.3946997</v>
       </c>
       <c r="Y2" t="n">
-        <v>203771000</v>
+        <v>183100982.1847015</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>834531095.5691888</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>122208728.0163599</v>
+        <v>6071852.760736196</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>73606176.41445127</v>
+        <v>261538008.4526244</v>
       </c>
       <c r="AC2" t="n">
-        <v>3214833000</v>
+        <v>1897843812.936288</v>
       </c>
       <c r="AD2" t="n">
-        <v>8832684000</v>
+        <v>2143925743.844295</v>
       </c>
       <c r="AE2" t="n">
         <v>3879273000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2443844000</v>
+        <v>1371188672.411825</v>
       </c>
       <c r="AG2" t="n">
-        <v>204126000</v>
+        <v>777475099.4828255</v>
       </c>
       <c r="AH2" t="n">
         <v>397668000</v>
@@ -3777,25 +3777,25 @@
         <v>3392228000</v>
       </c>
       <c r="AK2" t="n">
-        <v>696563000</v>
+        <v>403786699.355502</v>
       </c>
       <c r="AL2" t="n">
-        <v>13309578000</v>
+        <v>4971911076.608805</v>
       </c>
       <c r="AM2" t="n">
-        <v>13558934000</v>
+        <v>37815718000</v>
       </c>
       <c r="AN2" t="n">
-        <v>662873000</v>
+        <v>320312101.9949697</v>
       </c>
       <c r="AO2" t="n">
-        <v>9788185000</v>
+        <v>6689040493.303491</v>
       </c>
       <c r="AP2" t="n">
-        <v>358687000</v>
+        <v>175691223.8868003</v>
       </c>
       <c r="AQ2" t="n">
-        <v>99796000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177147296.903624</v>
+        <v>107646960.3202385</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>84120764.70590283</v>
+        <v>51117599.75276932</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>70521697.68207331</v>
+        <v>42853865.2567083</v>
       </c>
       <c r="G2" t="n">
-        <v>1381742206.570516</v>
+        <v>839642213.4762603</v>
       </c>
       <c r="H2" t="n">
-        <v>100036130.001147</v>
+        <v>60788877.42036664</v>
       </c>
       <c r="I2" t="n">
-        <v>338926354.1381828</v>
+        <v>205955114.3771909</v>
       </c>
       <c r="J2" t="n">
-        <v>663208910.8597739</v>
+        <v>403011643.7519865</v>
       </c>
       <c r="K2" t="n">
         <v>145345000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>314658736.7656342</v>
+        <v>191208430.1769195</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>433974455.6203697</v>
+        <v>263712920.3816113</v>
       </c>
       <c r="O2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>95122382.77158049</v>
+        <v>57802944.4578524</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>347996658.6796258</v>
+        <v>211466859.2930413</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>40095921.80172924</v>
+        <v>24365057.65900759</v>
       </c>
       <c r="S2" t="n">
-        <v>529680705.301055</v>
+        <v>321870662.7906337</v>
       </c>
       <c r="T2" t="n">
-        <v>86508948.0960855</v>
+        <v>52568825.29859468</v>
       </c>
       <c r="U2" t="n">
-        <v>253707344.5622127</v>
+        <v>154170145.0172277</v>
       </c>
       <c r="V2" t="n">
-        <v>533779754.517917</v>
+        <v>324361528.8445386</v>
       </c>
       <c r="W2" t="n">
-        <v>257678598.012376</v>
+        <v>156583353.5168409</v>
       </c>
       <c r="X2" t="n">
-        <v>326707481.3946997</v>
+        <v>198530081.4674798</v>
       </c>
       <c r="Y2" t="n">
-        <v>183100982.1847015</v>
+        <v>111264831.6308011</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>834531095.5691888</v>
+        <v>788927127.9804097</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>6071852.760736196</v>
+        <v>180372492.8470164</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>261538008.4526244</v>
+        <v>247245945.6115479</v>
       </c>
       <c r="AC2" t="n">
-        <v>1897843812.936288</v>
+        <v>1153261275.763691</v>
       </c>
       <c r="AD2" t="n">
-        <v>2143925743.844295</v>
+        <v>1302797691.588278</v>
       </c>
       <c r="AE2" t="n">
         <v>3879273000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1371188672.411825</v>
+        <v>833229155.5709124</v>
       </c>
       <c r="AG2" t="n">
-        <v>777475099.4828255</v>
+        <v>472447689.8427292</v>
       </c>
       <c r="AH2" t="n">
         <v>397668000</v>
@@ -3777,22 +3777,22 @@
         <v>3392228000</v>
       </c>
       <c r="AK2" t="n">
-        <v>403786699.355502</v>
+        <v>245368749.9787788</v>
       </c>
       <c r="AL2" t="n">
-        <v>4971911076.608805</v>
+        <v>3021277342.270942</v>
       </c>
       <c r="AM2" t="n">
         <v>37815718000</v>
       </c>
       <c r="AN2" t="n">
-        <v>320312101.9949697</v>
+        <v>662873000</v>
       </c>
       <c r="AO2" t="n">
-        <v>6689040493.303491</v>
+        <v>9788185000</v>
       </c>
       <c r="AP2" t="n">
-        <v>175691223.8868003</v>
+        <v>106762149.561028</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,6 +1016,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1188,19 +1193,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2034,11 +2039,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3442,10 +3447,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.81640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,76 +3677,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107646960.3202385</v>
+        <v>272198437.7406801</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>51117599.75276932</v>
+        <v>129257071.006595</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42853865.2567083</v>
+        <v>108361212.7952724</v>
       </c>
       <c r="G2" t="n">
-        <v>839642213.4762603</v>
+        <v>2123137505.132093</v>
       </c>
       <c r="H2" t="n">
-        <v>60788877.42036664</v>
+        <v>153712073.3981617</v>
       </c>
       <c r="I2" t="n">
-        <v>205955114.3771909</v>
+        <v>520782567.4909891</v>
       </c>
       <c r="J2" t="n">
-        <v>403011643.7519865</v>
+        <v>1019063980.016256</v>
       </c>
       <c r="K2" t="n">
         <v>145345000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>191208430.1769195</v>
+        <v>483493782.1019009</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>263712920.3816113</v>
+        <v>666830207.9906596</v>
       </c>
       <c r="O2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>57802944.4578524</v>
+        <v>146161778.5716577</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>211466859.2930413</v>
+        <v>534719685.1843863</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>24365057.65900759</v>
+        <v>61610013.05112153</v>
       </c>
       <c r="S2" t="n">
-        <v>321870662.7906337</v>
+        <v>813889136.3539581</v>
       </c>
       <c r="T2" t="n">
-        <v>52568825.29859468</v>
+        <v>132926671.3855363</v>
       </c>
       <c r="U2" t="n">
-        <v>154170145.0172277</v>
+        <v>389837971.2265198</v>
       </c>
       <c r="V2" t="n">
-        <v>324361528.8445386</v>
+        <v>820187594.2618935</v>
       </c>
       <c r="W2" t="n">
-        <v>156583353.5168409</v>
+        <v>395940062.5589934</v>
       </c>
       <c r="X2" t="n">
-        <v>198530081.4674798</v>
+        <v>502007468.2946533</v>
       </c>
       <c r="Y2" t="n">
-        <v>111264831.6308011</v>
+        <v>281346665.575004</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>788927127.9804097</v>
@@ -3753,19 +3758,19 @@
         <v>247245945.6115479</v>
       </c>
       <c r="AC2" t="n">
-        <v>1153261275.763691</v>
+        <v>2916161465.552145</v>
       </c>
       <c r="AD2" t="n">
-        <v>1302797691.588278</v>
+        <v>3294282488.679081</v>
       </c>
       <c r="AE2" t="n">
         <v>3879273000</v>
       </c>
       <c r="AF2" t="n">
-        <v>833229155.5709124</v>
+        <v>2106921307.872243</v>
       </c>
       <c r="AG2" t="n">
-        <v>472447689.8427292</v>
+        <v>1194641471.592083</v>
       </c>
       <c r="AH2" t="n">
         <v>397668000</v>
@@ -3777,13 +3782,13 @@
         <v>3392228000</v>
       </c>
       <c r="AK2" t="n">
-        <v>245368749.9787788</v>
+        <v>620444740.9933063</v>
       </c>
       <c r="AL2" t="n">
-        <v>3021277342.270942</v>
+        <v>7639667391.452099</v>
       </c>
       <c r="AM2" t="n">
-        <v>37815718000</v>
+        <v>13558934000</v>
       </c>
       <c r="AN2" t="n">
         <v>662873000</v>
@@ -3792,7 +3797,7 @@
         <v>9788185000</v>
       </c>
       <c r="AP2" t="n">
-        <v>106762149.561028</v>
+        <v>269961086.0715129</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
